--- a/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
+++ b/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -619,8 +619,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +682,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +889,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,9 +898,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,18 +916,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -930,21 +928,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,18 +967,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1006,6 +992,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1036,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1314,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1334,10 +1344,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1354,72 +1364,72 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="54" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="26" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="24" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,244 +1457,244 @@
       <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="11" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="49"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="27" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="27" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" ht="27" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" ht="27" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" ht="27" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="27" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="29" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:17" ht="81" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="39" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="21" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
+++ b/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,6 +916,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -943,6 +958,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -992,30 +1016,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O14" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1343,7 +1343,7 @@
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" customHeight="1">
+    <row r="1" spans="1:17" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1363,73 +1363,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="54" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:17" ht="54" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:17" ht="24" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="18" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
+    <row r="5" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1467,250 +1467,218 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="27" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42" t="s">
+    <row r="6" spans="1:17" ht="27" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" ht="27" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+    <row r="7" spans="1:17" ht="27" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" ht="27" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+    <row r="8" spans="1:17" ht="27" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" ht="27" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+    <row r="9" spans="1:17" ht="27" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" ht="27" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+    <row r="10" spans="1:17" ht="27" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" ht="27" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" ht="27" customHeight="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" ht="27" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" ht="27" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1">
+      <c r="A14" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" ht="27" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>13</v>
-      </c>
+    <row r="15" spans="1:17" ht="81" customHeight="1">
+      <c r="A15" s="44"/>
       <c r="B15" s="45"/>
-      <c r="C15" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="27" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="1:17" ht="81" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" ht="21" customHeight="1">
-      <c r="A18" s="13" t="s">
+    <row r="16" spans="1:17" ht="21" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J15:N15"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A16:I17"/>
-    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="A14:I15"/>
+    <mergeCell ref="J14:N14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
+++ b/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
@@ -943,18 +943,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,14 +997,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O14" sqref="A13:XFD14"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1382,43 +1382,43 @@
       <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="23" t="s">
         <v>11</v>
       </c>
@@ -1428,8 +1428,8 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1584,10 +1584,10 @@
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
@@ -1600,48 +1600,48 @@
         <v>15</v>
       </c>
       <c r="J13" s="18"/>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="27" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:17" ht="81" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="49"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1665,20 +1665,19 @@
       <c r="N16" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J15:N15"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="K13:L13"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A14:I15"/>
-    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J14:N15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
+++ b/mySystem/mySystem/xls/LDPE/13 QB-PA-PP-03-R01A 产品外观和尺寸检验记.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="20170830" sheetId="13" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'20170830'!$4:$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -289,14 +292,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>合格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>尺寸检测</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -306,10 +301,6 @@
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -488,131 +479,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尺寸检测规则：
-每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次，每次测量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只产品，长和宽均应符合标准；记录第一个样品的实际测量值，其他样品确认是否在标准范围内。每批不少于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>均应合格。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Roll bag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只确认宽度。</t>
-    </r>
+    <t>尺寸检测规则：
+每2小时1次，每次测量3只产品，长和宽均应符合标准；记录第一个样品的实际测量值，其他样品确认是否在标准范围内。每批不少于8只,均应合格。 Roll bag只确认宽度。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +566,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -867,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +806,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -952,9 +854,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -979,43 +878,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1364,101 +1242,101 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="54" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="A3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="B4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="L5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>7</v>
@@ -1476,212 +1354,110 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="I6" s="16"/>
       <c r="J6" s="20"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="27" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+    <row r="9" spans="1:17" ht="81" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" ht="27" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" ht="27" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="1:17" ht="27" customHeight="1">
-      <c r="A14" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" spans="1:17" ht="81" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1">
-      <c r="A16" s="13" t="s">
+    <row r="10" spans="1:17" ht="21" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="J8:N9"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A14:I15"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J14:N15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
